--- a/excel/run.xlsx
+++ b/excel/run.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agent.mpr2\Documents\Code\LiveSplit_Sync\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE63D59B-C846-4D1B-8DF3-D4DAEE559C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF1321D-91BE-4178-B709-B76673503A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aaaaaa" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,37 +26,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>&amp;</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+  <si>
+    <t>Colonne 1</t>
+  </si>
+  <si>
+    <t>Colonne 2</t>
+  </si>
+  <si>
+    <t>Colonne 3</t>
+  </si>
+  <si>
+    <t>Colonne 4</t>
+  </si>
+  <si>
+    <t>Colonne 5</t>
+  </si>
+  <si>
+    <t>Colonne 6</t>
+  </si>
+  <si>
+    <t>Colonne 7</t>
+  </si>
+  <si>
+    <t>Colonne 8</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>FINAL</t>
+  </si>
+  <si>
+    <t>A SUP</t>
+  </si>
+  <si>
+    <t>1:15:50,70</t>
+  </si>
+  <si>
+    <t>1:14:50,90</t>
+  </si>
+  <si>
+    <t>1:15:50,90</t>
+  </si>
+  <si>
+    <t>1:14:49,90</t>
+  </si>
+  <si>
+    <t>1:14:49,80</t>
+  </si>
+  <si>
+    <t>2:14:49,80</t>
+  </si>
+  <si>
+    <t>0:14:49,80</t>
+  </si>
+  <si>
+    <t>0:00:49,80</t>
+  </si>
+  <si>
+    <t>0:00:10,80</t>
+  </si>
+  <si>
+    <t>1:01:10,80</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -82,9 +138,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,7 +425,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,19 +435,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6AF669-E037-4A4F-8A10-1CA0D4F248E8}">
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F7"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,58 +466,130 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/run.xlsx
+++ b/excel/run.xlsx
@@ -8,25 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agent.mpr2\Documents\Code\LiveSplit_Sync\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF1321D-91BE-4178-B709-B76673503A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D95437C-7B5D-4110-8949-914880157308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aaaaaa" sheetId="3" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="4" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Colonne 1</t>
   </si>
@@ -436,154 +448,155 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6AF669-E037-4A4F-8A10-1CA0D4F248E8}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J3" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I6" s="1" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I7" s="1" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I8" s="1" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J9" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J10" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I11" s="1" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J12" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="C13">
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="D13">
+      <c r="E11">
         <v>15</v>
       </c>
-      <c r="E13">
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="G11">
         <v>4</v>
       </c>
-      <c r="G13">
+      <c r="H11">
         <v>5</v>
       </c>
-      <c r="H13">
+      <c r="I11">
         <v>6</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>0</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="C14">
+      <c r="D12">
         <v>5</v>
       </c>
-      <c r="D14">
+      <c r="E12">
         <v>5</v>
       </c>
-      <c r="E14">
+      <c r="F12">
         <v>5</v>
       </c>
-      <c r="F14">
+      <c r="G12">
         <v>4</v>
       </c>
-      <c r="G14">
+      <c r="H12">
         <v>15</v>
       </c>
-      <c r="H14">
+      <c r="I12">
         <v>3</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -592,4 +605,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6053C8C3-7D15-4BBA-B35F-ED9F81E32E5A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/run.xlsx
+++ b/excel/run.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agent.mpr2\Documents\Code\LiveSplit_Sync\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D95437C-7B5D-4110-8949-914880157308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D19CE32-102F-4D95-96E1-B3575E527179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="27">
   <si>
     <t>Colonne 1</t>
   </si>
@@ -101,6 +101,24 @@
   </si>
   <si>
     <t>1:01:10,80</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>sup</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -432,151 +450,1029 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="8">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{E46AA203-F494-43A6-99A0-95BB8ED9A843}">
+  <we:reference id="wa200005502" version="1.0.0.11" store="fr-FR" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200005502" version="1.0.0.11" store="wa200005502" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="docId" value="&quot;TU9u2DI5csTStOtCaduGI&quot;"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_GPT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_LIST</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_HLIST</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_CLASSIFY</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TRANSLATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_EXTRACT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TAG</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_CONVERT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_FORMAT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_SUMMARIZE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TABLE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_FILL</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_SPLIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_HSPLIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_EDIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_MATCH</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_VISION</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_WEB</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E46BBA-633C-4E56-8457-75FEF9C9233D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>92</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>79</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>67</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>59</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>58</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>57</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>56</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>48</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>47</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>46</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>45</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>44</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>43</v>
+      </c>
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>42</v>
+      </c>
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>41</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>40</v>
+      </c>
+      <c r="B63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>39</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>38</v>
+      </c>
+      <c r="B65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>37</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>36</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>35</v>
+      </c>
+      <c r="B68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>34</v>
+      </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>33</v>
+      </c>
+      <c r="B70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>32</v>
+      </c>
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>31</v>
+      </c>
+      <c r="B72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>30</v>
+      </c>
+      <c r="B73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>29</v>
+      </c>
+      <c r="B74" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>28</v>
+      </c>
+      <c r="B75" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>27</v>
+      </c>
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>26</v>
+      </c>
+      <c r="B77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>25</v>
+      </c>
+      <c r="B78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>24</v>
+      </c>
+      <c r="B79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>23</v>
+      </c>
+      <c r="B80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>22</v>
+      </c>
+      <c r="B81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>21</v>
+      </c>
+      <c r="B82" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>20</v>
+      </c>
+      <c r="B83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>19</v>
+      </c>
+      <c r="B84" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>18</v>
+      </c>
+      <c r="B85" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>16</v>
+      </c>
+      <c r="B87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>15</v>
+      </c>
+      <c r="B88" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>14</v>
+      </c>
+      <c r="B89" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>13</v>
+      </c>
+      <c r="B90" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>12</v>
+      </c>
+      <c r="B91" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>10</v>
+      </c>
+      <c r="B93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="B100" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6AF669-E037-4A4F-8A10-1CA0D4F248E8}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
         <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>15</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11">
-        <v>6</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -585,18 +1481,15 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H12">
-        <v>15</v>
-      </c>
-      <c r="I12">
         <v>3</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -609,12 +1502,154 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6053C8C3-7D15-4BBA-B35F-ED9F81E32E5A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:XFD120"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7 16383:16384" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7 16383:16384" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7 16383:16384" x14ac:dyDescent="0.25">
+      <c r="XFD3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7 16383:16384" x14ac:dyDescent="0.25">
+      <c r="XFC4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/run.xlsx
+++ b/excel/run.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agent.mpr2\Documents\Code\LiveSplit_Sync\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C008A17-6011-4C9B-B598-FD776F93DB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BC206B-64A9-4BD5-B04F-FAD2177B7A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,13 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
-  <si>
-    <t>Colonne 1</t>
-  </si>
-  <si>
-    <t>Colonne 2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Colonne 3</t>
   </si>
@@ -116,6 +110,15 @@
   </si>
   <si>
     <t>z</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date </t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
 </sst>
 </file>
@@ -508,13 +511,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -524,127 +527,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6AF669-E037-4A4F-8A10-1CA0D4F248E8}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I5" s="1" t="s">
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I6" s="1" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J7" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J8" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I9" s="1" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J10" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>15</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>4</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>5</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>6</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -653,16 +656,19 @@
         <v>5</v>
       </c>
       <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
         <v>4</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>15</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>3</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>11</v>
+      <c r="J12" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -684,10 +690,10 @@
   <sheetData>
     <row r="1" spans="1:7 16383:16384" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -699,25 +705,25 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7 16383:16384" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7 16383:16384" x14ac:dyDescent="0.25">
       <c r="XFD3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7 16383:16384" x14ac:dyDescent="0.25">
       <c r="XFC4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/excel/run.xlsx
+++ b/excel/run.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agent.mpr2\Documents\Code\LiveSplit_Sync\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Loup\Python\Projet\LiveSplit_Sync\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BC206B-64A9-4BD5-B04F-FAD2177B7A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F8702D-AED9-4CE3-943A-7224D2A19E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aaaaaa" sheetId="3" r:id="rId1"/>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Colonne 3</t>
   </si>
@@ -55,9 +53,6 @@
     <t>Colonne 7</t>
   </si>
   <si>
-    <t>Colonne 8</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -65,33 +60,6 @@
   </si>
   <si>
     <t>A SUP</t>
-  </si>
-  <si>
-    <t>1:15:50,70</t>
-  </si>
-  <si>
-    <t>1:14:50,90</t>
-  </si>
-  <si>
-    <t>1:15:50,90</t>
-  </si>
-  <si>
-    <t>1:14:49,90</t>
-  </si>
-  <si>
-    <t>1:14:49,80</t>
-  </si>
-  <si>
-    <t>2:14:49,80</t>
-  </si>
-  <si>
-    <t>0:14:49,80</t>
-  </si>
-  <si>
-    <t>0:00:49,80</t>
-  </si>
-  <si>
-    <t>0:00:10,80</t>
   </si>
   <si>
     <t>1:01:10,80</t>
@@ -168,10 +136,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,17 +477,17 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -527,26 +497,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6AF669-E037-4A4F-8A10-1CA0D4F248E8}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -563,113 +534,450 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>15</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11">
-        <v>6</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="H12">
-        <v>15</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B32" s="3"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="3"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="3"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="3"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="3"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="3"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="3"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="3"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="3"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="3"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="3"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="3"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="3"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="3"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B60" s="3"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B61" s="3"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B62" s="3"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B64" s="3"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="3"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B66" s="3"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B67" s="3"/>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="3"/>
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="3"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="3"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B72" s="3"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I81" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -686,14 +994,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7 16383:16384" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7 16383:16384" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -705,128 +1013,128 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7 16383:16384" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7 16383:16384" x14ac:dyDescent="0.35">
       <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7 16383:16384" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7 16383:16384" x14ac:dyDescent="0.35">
       <c r="XFD3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7 16383:16384" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7 16383:16384" x14ac:dyDescent="0.35">
       <c r="XFC4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="31" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="32" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/run.xlsx
+++ b/excel/run.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Loup\Python\Projet\LiveSplit_Sync\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F8702D-AED9-4CE3-943A-7224D2A19E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE39D0B1-8D02-4553-9DD0-1DEEAF7DB0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aaaaaa" sheetId="3" r:id="rId1"/>
@@ -497,10 +497,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6AF669-E037-4A4F-8A10-1CA0D4F248E8}">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -549,110 +549,119 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="3"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="3"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H22" s="4"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -661,7 +670,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -670,99 +679,98 @@
       <c r="H28" s="4"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="3"/>
-      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="3"/>
-      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="3"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="J37" s="4"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="3"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="J38" s="4"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="3"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="J39" s="4"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="3"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="J40" s="4"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="3"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="J41" s="4"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="J42" s="4"/>
+      <c r="B42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="3"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="2"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="3"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="3"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="3"/>
@@ -771,7 +779,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
-      <c r="I47" s="2"/>
+      <c r="J47" s="4"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="3"/>
@@ -780,108 +788,56 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="3"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="3"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J48" s="4"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B51" s="3"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B52" s="3"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
-      <c r="J52" s="4"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="3"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="J53" s="4"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="3"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="J54" s="4"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I52" s="2"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B55" s="3"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B56" s="3"/>
       <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B57" s="3"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="4"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B58" s="3"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="3"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="3"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B61" s="3"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -890,74 +846,61 @@
       <c r="H61" s="4"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B62" s="3"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
       <c r="H62" s="4"/>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B63" s="3"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B64" s="3"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
-      <c r="I64" s="2"/>
+      <c r="J64" s="4"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="3"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
-      <c r="I65" s="2"/>
+      <c r="J65" s="4"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="3"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="2"/>
+      <c r="J66" s="4"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="3"/>
       <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="2"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="3"/>
-      <c r="C68" s="4"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="J69" s="4"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="3"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="2"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="2"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="3"/>
@@ -975,9 +918,204 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
-    </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="3"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="3"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="3"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B76" s="3"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B77" s="3"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B78" s="3"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B79" s="3"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B80" s="3"/>
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B81" s="3"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
       <c r="I81" s="2"/>
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B82" s="3"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B83" s="3"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B84" s="3"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B85" s="3"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="J85" s="4"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B86" s="3"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B87" s="3"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B88" s="3"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B89" s="3"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B90" s="3"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B91" s="3"/>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B92" s="3"/>
+      <c r="C92" s="4"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="J93" s="4"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B94" s="3"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B95" s="3"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B96" s="3"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="105" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I105" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/run.xlsx
+++ b/excel/run.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Loup\Python\Projet\LiveSplit_Sync\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE39D0B1-8D02-4553-9DD0-1DEEAF7DB0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00936CC-CF9D-464A-A148-4299624DEDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aaaaaa" sheetId="3" r:id="rId1"/>
@@ -136,12 +136,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,15 +503,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6AF669-E037-4A4F-8A10-1CA0D4F248E8}">
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:L133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" style="5"/>
     <col min="9" max="9" width="11.453125" style="1"/>
   </cols>
   <sheetData>
@@ -519,7 +526,7 @@
       <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
@@ -547,15 +554,8 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B8" s="3"/>
-    </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="3"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -563,89 +563,106 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="J14" s="4"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="3"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="3"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="3"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="3"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="3"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="3"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="3"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="J24" s="4"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
-      <c r="D25" s="4"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -654,7 +671,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -663,7 +680,7 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
-      <c r="D27" s="4"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -672,7 +689,7 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="3"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -681,23 +698,31 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="3"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="3"/>
-      <c r="D31" s="4"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="2"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="3"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="2"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="3"/>
@@ -707,74 +732,67 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="3"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="3"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="3"/>
-      <c r="D37" s="4"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="J37" s="4"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="3"/>
-      <c r="D38" s="4"/>
+      <c r="D38" s="6"/>
       <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="3"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="3"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="J38" s="4"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="3"/>
-      <c r="D41" s="4"/>
+      <c r="D41" s="6"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="J41" s="4"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="3"/>
-      <c r="D42" s="4"/>
+      <c r="D42" s="6"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="J42" s="4"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="3"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="D43" s="6"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="3"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="D44" s="6"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="3"/>
-      <c r="D45" s="4"/>
+      <c r="D45" s="6"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="3"/>
-      <c r="D46" s="4"/>
+      <c r="D46" s="6"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="3"/>
-      <c r="D47" s="4"/>
+      <c r="D47" s="6"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -783,164 +801,163 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="3"/>
-      <c r="D48" s="4"/>
+      <c r="D48" s="6"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B51" s="3"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B52" s="3"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B49" s="3"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B50" s="3"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B53" s="3"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B54" s="3"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" s="3"/>
-      <c r="D55" s="4"/>
+      <c r="D55" s="6"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
-      <c r="J55" s="4"/>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B56" s="3"/>
-      <c r="D56" s="4"/>
+      <c r="D56" s="6"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="2"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B57" s="3"/>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B58" s="3"/>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B59" s="3"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B60" s="3"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B61" s="3"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="J61" s="4"/>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B62" s="3"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="J62" s="4"/>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B63" s="3"/>
-      <c r="D63" s="4"/>
+      <c r="D63" s="6"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="J63" s="4"/>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B64" s="3"/>
-      <c r="D64" s="4"/>
+      <c r="D64" s="6"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="J64" s="4"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D65" s="4"/>
+      <c r="B65" s="3"/>
+      <c r="D65" s="6"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="J65" s="4"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="J66" s="4"/>
+      <c r="B66" s="3"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="4"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="3"/>
-      <c r="D67" s="4"/>
+      <c r="D67" s="6"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="2"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="3"/>
-      <c r="D68" s="4"/>
+      <c r="D68" s="6"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B69" s="3"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="3"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="3"/>
-      <c r="D71" s="4"/>
+      <c r="D71" s="6"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="2"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="3"/>
-      <c r="D72" s="4"/>
+      <c r="D72" s="6"/>
       <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="2"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="3"/>
-      <c r="D73" s="4"/>
+      <c r="D73" s="6"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="2"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="3"/>
-      <c r="D74" s="4"/>
+      <c r="D74" s="6"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="2"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="3"/>
-      <c r="D75" s="4"/>
+      <c r="D75" s="6"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -949,173 +966,339 @@
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="3"/>
-      <c r="D76" s="4"/>
+      <c r="D76" s="6"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="3"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="J77" s="4"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="3"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="J78" s="4"/>
-    </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="3"/>
-      <c r="D79" s="4"/>
+      <c r="D79" s="6"/>
       <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="2"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="3"/>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B81" s="3"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="4"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B82" s="3"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D80" s="6"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B83" s="3"/>
-      <c r="D83" s="4"/>
+      <c r="D83" s="6"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
-      <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J83" s="4"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B84" s="3"/>
-      <c r="D84" s="4"/>
+      <c r="D84" s="6"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
       <c r="I84" s="2"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B85" s="3"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="J85" s="4"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D85" s="6"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B86" s="3"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="2"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B87" s="3"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="2"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B88" s="3"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="2"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D86" s="6"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B89" s="3"/>
-      <c r="D89" s="4"/>
+      <c r="D89" s="6"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
-      <c r="I89" s="2"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J89" s="4"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B90" s="3"/>
-      <c r="D90" s="4"/>
+      <c r="D90" s="6"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
-      <c r="I90" s="2"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J90" s="4"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B91" s="3"/>
-      <c r="D91" s="4"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D91" s="6"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="J91" s="4"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B92" s="3"/>
-      <c r="C92" s="4"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D93" s="4"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="J92" s="4"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="D93" s="6"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B94" s="3"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="2"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="J94" s="4"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B95" s="3"/>
-      <c r="D95" s="4"/>
+      <c r="D95" s="6"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B96" s="3"/>
-      <c r="D96" s="4"/>
+      <c r="D96" s="6"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
-    </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I105" s="2"/>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B99" s="3"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B100" s="3"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B101" s="3"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B102" s="3"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B103" s="3"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="J103" s="4"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B104" s="3"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="J104" s="4"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B105" s="3"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="J105" s="4"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B106" s="3"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="J106" s="4"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B107" s="3"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="3"/>
+      <c r="D108" s="6"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="3"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="4"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="3"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="3"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="2"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B112" s="3"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B113" s="3"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="J113" s="4"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B114" s="3"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="2"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B115" s="3"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="2"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B116" s="3"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B117" s="3"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B118" s="3"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B119" s="3"/>
+      <c r="D119" s="6"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B120" s="3"/>
+      <c r="C120" s="4"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D121" s="6"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="J121" s="4"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B122" s="3"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="2"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B123" s="3"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B124" s="3"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+    </row>
+    <row r="133" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I133" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/run.xlsx
+++ b/excel/run.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Loup\Python\Projet\LiveSplit_Sync\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00936CC-CF9D-464A-A148-4299624DEDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48C6B91-DACC-4042-800D-256B9F5C39D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Colonne 3</t>
   </si>
@@ -87,6 +87,33 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>DELTA</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>+0:00:01,35</t>
+  </si>
+  <si>
+    <t>0:00:02,29</t>
+  </si>
+  <si>
+    <t>0:00:10,44</t>
+  </si>
+  <si>
+    <t>+0:00:10,96</t>
+  </si>
+  <si>
+    <t>0:00:02,82</t>
+  </si>
+  <si>
+    <t>+0:00:10,64</t>
+  </si>
+  <si>
+    <t>RESET</t>
   </si>
 </sst>
 </file>
@@ -503,7 +530,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6AF669-E037-4A4F-8A10-1CA0D4F248E8}">
-  <dimension ref="A1:L133"/>
+  <dimension ref="A1:L135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
@@ -549,59 +576,88 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B5" s="3"/>
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45393.799583333333</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D9" s="6"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J10" s="4"/>
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45393.799583333333</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="3"/>
       <c r="D11" s="6"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="2"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="3"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="3"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="3"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="3"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="3"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B17" s="3"/>
       <c r="D17" s="6"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -610,55 +666,54 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="3"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="3"/>
       <c r="D19" s="6"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="2"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="3"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="2"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="3"/>
       <c r="D21" s="6"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="3"/>
       <c r="D22" s="6"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="3"/>
       <c r="D23" s="6"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="J23" s="4"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="3"/>
       <c r="D24" s="6"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="J24" s="4"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
@@ -667,7 +722,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="2"/>
+      <c r="J25" s="4"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
@@ -676,7 +731,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="2"/>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
@@ -700,35 +755,47 @@
       <c r="B29" s="3"/>
       <c r="D29" s="6"/>
       <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="2"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="3"/>
       <c r="D30" s="6"/>
       <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="2"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="3"/>
       <c r="D31" s="6"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="2"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="3"/>
       <c r="D32" s="6"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="2"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="3"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="2"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="3"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="2"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="3"/>
@@ -738,113 +805,101 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="3"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="J37" s="4"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="3"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="3"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="3"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="J42" s="4"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="3"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="3"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="J40" s="4"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="3"/>
       <c r="D43" s="6"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="J43" s="4"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="3"/>
       <c r="D44" s="6"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="J44" s="4"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="3"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="4"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="3"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="4"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="3"/>
       <c r="D47" s="6"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="J47" s="4"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="3"/>
       <c r="D48" s="6"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="3"/>
       <c r="D49" s="6"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="3"/>
       <c r="D50" s="6"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B53" s="3"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B54" s="3"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="3"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="3"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="3"/>
       <c r="D55" s="6"/>
       <c r="E55" s="4"/>
@@ -853,7 +908,7 @@
       <c r="H55" s="4"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="3"/>
       <c r="D56" s="6"/>
       <c r="E56" s="4"/>
@@ -862,53 +917,61 @@
       <c r="H56" s="4"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D57" s="6"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D58" s="6"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="3"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="3"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D61" s="6"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D62" s="6"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="3"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="3"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="3"/>
       <c r="D65" s="6"/>
       <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="3"/>
       <c r="D66" s="6"/>
       <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="3"/>
@@ -924,45 +987,39 @@
       <c r="B69" s="3"/>
       <c r="D69" s="6"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="3"/>
       <c r="D70" s="6"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="3"/>
       <c r="D71" s="6"/>
       <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="3"/>
       <c r="D72" s="6"/>
       <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="3"/>
       <c r="D73" s="6"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="3"/>
       <c r="D74" s="6"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="3"/>
       <c r="D75" s="6"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="J75" s="4"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="3"/>
@@ -970,73 +1027,71 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="J76" s="4"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="3"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B80" s="3"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="2"/>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B83" s="3"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="J83" s="4"/>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B84" s="3"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B77" s="3"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B78" s="3"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B81" s="3"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B82" s="3"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="2"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B85" s="3"/>
       <c r="D85" s="6"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="J85" s="4"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B86" s="3"/>
       <c r="D86" s="6"/>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B89" s="3"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="J89" s="4"/>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B90" s="3"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="J90" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B87" s="3"/>
+      <c r="D87" s="6"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B88" s="3"/>
+      <c r="D88" s="6"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B91" s="3"/>
@@ -1057,6 +1112,7 @@
       <c r="J92" s="4"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B93" s="3"/>
       <c r="D93" s="6"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -1065,43 +1121,42 @@
       <c r="J93" s="4"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B94" s="3"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
       <c r="J94" s="4"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B95" s="3"/>
       <c r="D95" s="6"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
-      <c r="I95" s="2"/>
+      <c r="J95" s="4"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B96" s="3"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="2"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B99" s="3"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="2"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B100" s="3"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="2"/>
+      <c r="J96" s="4"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B97" s="3"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B98" s="3"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="2"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="3"/>
@@ -1128,7 +1183,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
-      <c r="J103" s="4"/>
+      <c r="I103" s="2"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="3"/>
@@ -1137,7 +1192,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
-      <c r="J104" s="4"/>
+      <c r="I104" s="2"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="3"/>
@@ -1161,29 +1216,28 @@
       <c r="B107" s="3"/>
       <c r="D107" s="6"/>
       <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="J107" s="4"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="3"/>
       <c r="D108" s="6"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="J108" s="4"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="3"/>
       <c r="D109" s="6"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="4"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="3"/>
       <c r="D110" s="6"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="2"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="3"/>
@@ -1193,6 +1247,7 @@
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="2"/>
+      <c r="J111" s="4"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="3"/>
@@ -1200,6 +1255,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
       <c r="I112" s="2"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
@@ -1209,14 +1265,14 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
-      <c r="J113" s="4"/>
+      <c r="I113" s="2"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="3"/>
       <c r="D114" s="6"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
-      <c r="H114" s="4"/>
+      <c r="G114" s="4"/>
       <c r="I114" s="2"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.35">
@@ -1226,14 +1282,13 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
-      <c r="I115" s="2"/>
+      <c r="J115" s="4"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="3"/>
       <c r="D116" s="6"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
       <c r="H116" s="4"/>
       <c r="I116" s="2"/>
     </row>
@@ -1258,36 +1313,36 @@
     <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="3"/>
       <c r="D119" s="6"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="2"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="3"/>
-      <c r="C120" s="4"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="2"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B121" s="3"/>
       <c r="D121" s="6"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="J121" s="4"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="3"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="2"/>
+      <c r="C122" s="4"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B123" s="3"/>
       <c r="D123" s="6"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
-      <c r="I123" s="2"/>
+      <c r="J123" s="4"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124" s="3"/>
@@ -1296,9 +1351,27 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
-    </row>
-    <row r="133" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I133" s="2"/>
+      <c r="I124" s="2"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B125" s="3"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="2"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B126" s="3"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+    </row>
+    <row r="135" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I135" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/run.xlsx
+++ b/excel/run.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Loup\Python\Projet\LiveSplit_Sync\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48C6B91-DACC-4042-800D-256B9F5C39D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9E6697-979D-4490-A9DE-59F504B49053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Colonne 3</t>
   </si>
@@ -95,25 +95,34 @@
     <t>TIME</t>
   </si>
   <si>
-    <t>+0:00:01,35</t>
-  </si>
-  <si>
-    <t>0:00:02,29</t>
-  </si>
-  <si>
-    <t>0:00:10,44</t>
-  </si>
-  <si>
-    <t>+0:00:10,96</t>
-  </si>
-  <si>
-    <t>0:00:02,82</t>
-  </si>
-  <si>
-    <t>+0:00:10,64</t>
-  </si>
-  <si>
-    <t>RESET</t>
+    <t>0:00:01,13</t>
+  </si>
+  <si>
+    <t>-0:00:00,22</t>
+  </si>
+  <si>
+    <t>-0:00:01,92</t>
+  </si>
+  <si>
+    <t>0:00:01,04</t>
+  </si>
+  <si>
+    <t>-0:00:01,90</t>
+  </si>
+  <si>
+    <t>0:00:01,92</t>
+  </si>
+  <si>
+    <t>-0:00:01,09</t>
+  </si>
+  <si>
+    <t>0:00:02,47</t>
+  </si>
+  <si>
+    <t>-0:00:01,01</t>
+  </si>
+  <si>
+    <t>0:00:03,03</t>
   </si>
 </sst>
 </file>
@@ -533,7 +542,7 @@
   <dimension ref="A1:L135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,51 +584,69 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45393.820740740739</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45393.820740740739</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>45393.799583333333</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
+      <c r="B5" s="3"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
-        <v>45393.799583333333</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
